--- a/data/CH4-300.xlsx
+++ b/data/CH4-300.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://surreyac-my.sharepoint.com/personal/md01522_surrey_ac_uk/Documents/PhD Surrey/My Project/Python files/Kinetics/PE models/Implicit PE/Surrey Lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{2D0405E8-5824-465C-B38D-7491F2E30C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63806A3E-949E-4280-A042-A599EF0A124E}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{45DCBF30-12F3-42AE-AF69-D556F0846F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5DBA14A0-39A8-42C9-A353-72AA82895C12}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE29BAB3-1174-4539-BE8E-0A7DB9341039}"/>
   </bookViews>
@@ -100,6 +100,2980 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Hyd-300'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CH4 (%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Hyd-300'!$A$2:$A$350</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="349"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.000000000003638</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.000000000004547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.000000000005457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.000000000000909</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.000000000001819</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.000000000005457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45.000000000007276</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50.999999999998181</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.000000000001819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.000000000003638</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68.000000000003638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>74.000000000004547</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>78.999999999999091</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>91.000000000000909</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>96.000000000004547</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>107.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>119.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>125.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>131.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>135.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>153.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>159.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>165.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>170.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>176.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>182.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>187.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>192.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>198.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>204.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>210.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>216.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>222.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>233.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>239.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>244.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>250.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>255.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>261.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>267.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>273.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>277.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>283.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>290.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>296.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>301.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>307.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>312.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>318.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>324.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>330.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>334.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>340.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>358.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>364.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>370.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>375.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>381.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>387.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>392.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>397.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>403.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>409.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>415.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>421.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>427.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>438.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>444.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>449.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>455.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>460.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>466.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>472.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>478.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>484.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>488.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>501.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>506.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>512.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>517.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>523.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>529.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>535.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>539.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>545.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>551.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>558.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>563.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>569.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>575.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>580.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>586.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>592.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>598.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>602.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>608.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>615</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>620.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>626.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>632.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>637</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>643.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>649.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>654.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>660.00000000000728</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>665.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>671.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>677.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>683.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>689.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>694</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>706.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>711.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>717.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>722.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>728.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>734.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>740.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>746.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>750.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>757</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>763</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>768.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>774.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>780.00000000000728</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>785.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>791.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>797.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>803.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>807.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>813.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>819.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>825.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>831.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>837.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>848.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>854.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>860.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>864.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>870.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>876.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>882.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>888.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>894.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>898.99999999999909</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>905.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>911.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>917.00000000000273</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>922.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>927.99999999999727</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>933.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>939.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>945.00000000000364</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>951.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>955.99999999999818</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>962</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>973.00000000000455</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>979.00000000000546</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>985.00000000000637</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>990.00000000000091</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>996.00000000000182</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1002.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1008.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1012.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1018.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1030.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1036.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1042.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1046.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1053.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1059.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1064.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1069.9999999999973</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1075.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1087.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1093.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1099.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1103.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1110</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1116.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1121.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1127.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1132.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1138.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1144.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1150.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1154.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1160.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1166.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1172.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1178.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1184.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1190.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1195.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1201.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1207.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1212.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1217.9999999999973</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1223.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1229.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1235.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1241.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1245.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1252</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1258.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1264.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1269.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1274.9999999999964</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1280.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1286.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1292.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1298.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1302.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1309</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1315.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1321.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1326.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1332.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1337.9999999999973</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1343.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1349.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1355.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1359.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1365.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1378</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1383.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1389.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1395.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1400.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1406.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1412.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1417.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1422.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1429</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1434.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1440.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1446.0000000000045</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1452.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1463.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1469.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1474.0000000000064</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1479.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1485.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1491.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1497.0000000000027</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1503.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1509.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1513.9999999999991</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1520.0000000000009</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1526.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1531.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1537.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1542.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1548.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1554.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1560.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1566.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1570.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>1583.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1588.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1594.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1600.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>1605.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>1611.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1617.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>1623.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>1627.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>1634</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>1640</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>1645.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>1651.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1657.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1662.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1674.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>1680.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>1684.9999999999964</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>1690.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>1697</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>1702.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>1708.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>1714.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>1720.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>1731.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>1737.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>1742.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>1747.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>1754</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>1759.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>1765.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>1771.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>1777.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>1788</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>1794.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>1799.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>1805.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>1810.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>1816.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>1822.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>1828.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>1834.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>1838.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>1851.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>1856.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>1862.0000000000073</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>1867.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>1873.0000000000018</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>1879.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>1885.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>1891.0000000000036</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>1895.9999999999982</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>1913.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>1919.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>1925.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>1931.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>1937.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1943.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1949.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1955.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1961.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1967.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1973.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1979.0000000000055</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1985.0000000000055</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Hyd-300'!$B$2:$B$345</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="344"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.38</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.53</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.56999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2533-4425-8D3B-0BB6837441AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1072869903"/>
+        <c:axId val="1072865583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1072869903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072865583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1072865583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1072869903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311394</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>18317</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BEA36AA-A37A-4AF5-7885-693A66EC4FEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -426,7 +3400,7 @@
   <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+      <selection activeCell="B351" sqref="B351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +3502,7 @@
         <v>56.000000000001819</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -536,7 +3510,7 @@
         <v>62.000000000003638</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -544,7 +3518,7 @@
         <v>68.000000000003638</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -552,7 +3526,7 @@
         <v>74.000000000004547</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,7 +3534,7 @@
         <v>78.999999999999091</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -568,7 +3542,7 @@
         <v>85</v>
       </c>
       <c r="B17" s="1">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -576,7 +3550,7 @@
         <v>91.000000000000909</v>
       </c>
       <c r="B18" s="1">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -584,7 +3558,7 @@
         <v>96.000000000004547</v>
       </c>
       <c r="B19" s="1">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -592,7 +3566,7 @@
         <v>102.00000000000637</v>
       </c>
       <c r="B20" s="1">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -600,7 +3574,7 @@
         <v>107.99999999999727</v>
       </c>
       <c r="B21" s="1">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -608,7 +3582,7 @@
         <v>113.00000000000091</v>
       </c>
       <c r="B22" s="1">
-        <v>0.03</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -616,7 +3590,7 @@
         <v>119.00000000000273</v>
       </c>
       <c r="B23" s="1">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -624,7 +3598,7 @@
         <v>125.00000000000273</v>
       </c>
       <c r="B24" s="1">
-        <v>0.06</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -632,7 +3606,7 @@
         <v>131.00000000000364</v>
       </c>
       <c r="B25" s="1">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -640,7 +3614,7 @@
         <v>135.99999999999818</v>
       </c>
       <c r="B26" s="1">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -648,7 +3622,7 @@
         <v>142</v>
       </c>
       <c r="B27" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -656,7 +3630,7 @@
         <v>148</v>
       </c>
       <c r="B28" s="1">
-        <v>0.16</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -664,7 +3638,7 @@
         <v>153.00000000000364</v>
       </c>
       <c r="B29" s="1">
-        <v>0.18</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -672,7 +3646,7 @@
         <v>159.00000000000546</v>
       </c>
       <c r="B30" s="1">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -680,7 +3654,7 @@
         <v>165.00000000000637</v>
       </c>
       <c r="B31" s="1">
-        <v>0.23</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -688,7 +3662,7 @@
         <v>170.00000000000091</v>
       </c>
       <c r="B32" s="1">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -696,7 +3670,7 @@
         <v>176.00000000000182</v>
       </c>
       <c r="B33" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -704,7 +3678,7 @@
         <v>182.00000000000273</v>
       </c>
       <c r="B34" s="1">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -712,7 +3686,7 @@
         <v>187.00000000000637</v>
       </c>
       <c r="B35" s="1">
-        <v>0.34</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -720,7 +3694,7 @@
         <v>192.99999999999727</v>
       </c>
       <c r="B36" s="1">
-        <v>0.36</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -728,7 +3702,7 @@
         <v>198.99999999999909</v>
       </c>
       <c r="B37" s="1">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -736,7 +3710,7 @@
         <v>204.00000000000273</v>
       </c>
       <c r="B38" s="1">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -744,7 +3718,7 @@
         <v>210.00000000000364</v>
       </c>
       <c r="B39" s="1">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -752,7 +3726,7 @@
         <v>216.00000000000455</v>
       </c>
       <c r="B40" s="1">
-        <v>0.47</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -760,7 +3734,7 @@
         <v>222.00000000000546</v>
       </c>
       <c r="B41" s="1">
-        <v>0.49</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -768,7 +3742,7 @@
         <v>227</v>
       </c>
       <c r="B42" s="1">
-        <v>0.46</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -776,7 +3750,7 @@
         <v>233.00000000000091</v>
       </c>
       <c r="B43" s="1">
-        <v>0.49</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -784,7 +3758,7 @@
         <v>239.00000000000182</v>
       </c>
       <c r="B44" s="1">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -792,7 +3766,7 @@
         <v>244.00000000000546</v>
       </c>
       <c r="B45" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -800,7 +3774,7 @@
         <v>250.00000000000637</v>
       </c>
       <c r="B46" s="1">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -808,7 +3782,7 @@
         <v>255.99999999999818</v>
       </c>
       <c r="B47" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -816,7 +3790,7 @@
         <v>261.00000000000182</v>
       </c>
       <c r="B48" s="1">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -824,7 +3798,7 @@
         <v>267.00000000000273</v>
       </c>
       <c r="B49" s="1">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -832,7 +3806,7 @@
         <v>273.00000000000364</v>
       </c>
       <c r="B50" s="1">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -840,7 +3814,7 @@
         <v>277.99999999999818</v>
       </c>
       <c r="B51" s="1">
-        <v>0.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -848,7 +3822,7 @@
         <v>283.99999999999909</v>
       </c>
       <c r="B52" s="1">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -856,7 +3830,7 @@
         <v>290.00000000000091</v>
       </c>
       <c r="B53" s="1">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -864,7 +3838,7 @@
         <v>296.00000000000091</v>
       </c>
       <c r="B54" s="1">
-        <v>0.72</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -872,7 +3846,7 @@
         <v>301.00000000000546</v>
       </c>
       <c r="B55" s="1">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -880,7 +3854,7 @@
         <v>307.00000000000546</v>
       </c>
       <c r="B56" s="1">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -888,7 +3862,7 @@
         <v>312.99999999999727</v>
       </c>
       <c r="B57" s="1">
-        <v>0.71</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="58" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -896,7 +3870,7 @@
         <v>318.00000000000182</v>
       </c>
       <c r="B58" s="1">
-        <v>0.68</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="59" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -904,7 +3878,7 @@
         <v>324.00000000000182</v>
       </c>
       <c r="B59" s="1">
-        <v>0.68</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="60" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -912,7 +3886,7 @@
         <v>330.00000000000364</v>
       </c>
       <c r="B60" s="1">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="61" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -920,7 +3894,7 @@
         <v>334.99999999999727</v>
       </c>
       <c r="B61" s="1">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="62" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -928,7 +3902,7 @@
         <v>340.99999999999818</v>
       </c>
       <c r="B62" s="1">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="63" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -936,7 +3910,7 @@
         <v>347</v>
       </c>
       <c r="B63" s="1">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="64" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -944,7 +3918,7 @@
         <v>353</v>
       </c>
       <c r="B64" s="1">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="65" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -960,7 +3934,7 @@
         <v>364.00000000000455</v>
       </c>
       <c r="B66" s="1">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -968,7 +3942,7 @@
         <v>370.00000000000637</v>
       </c>
       <c r="B67" s="1">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -976,7 +3950,7 @@
         <v>375.00000000000091</v>
       </c>
       <c r="B68" s="1">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -984,7 +3958,7 @@
         <v>381.00000000000182</v>
       </c>
       <c r="B69" s="1">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="70" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -992,7 +3966,7 @@
         <v>387.00000000000273</v>
       </c>
       <c r="B70" s="1">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="71" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1000,7 +3974,7 @@
         <v>392.00000000000637</v>
       </c>
       <c r="B71" s="1">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="72" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1008,7 +3982,7 @@
         <v>397.99999999999818</v>
       </c>
       <c r="B72" s="1">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="73" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1016,7 +3990,7 @@
         <v>403.99999999999909</v>
       </c>
       <c r="B73" s="1">
-        <v>0.76</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="74" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1024,7 +3998,7 @@
         <v>409.00000000000364</v>
       </c>
       <c r="B74" s="1">
-        <v>0.77</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="75" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1032,7 +4006,7 @@
         <v>415.00000000000364</v>
       </c>
       <c r="B75" s="1">
-        <v>0.75</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="76" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1040,7 +4014,7 @@
         <v>421.00000000000455</v>
       </c>
       <c r="B76" s="1">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="77" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1048,7 +4022,7 @@
         <v>427.00000000000546</v>
       </c>
       <c r="B77" s="1">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="78" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1056,7 +4030,7 @@
         <v>432</v>
       </c>
       <c r="B78" s="1">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="79" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1064,7 +4038,7 @@
         <v>438.00000000000091</v>
       </c>
       <c r="B79" s="1">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="80" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1072,7 +4046,7 @@
         <v>444.00000000000182</v>
       </c>
       <c r="B80" s="1">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="81" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1080,7 +4054,7 @@
         <v>449.00000000000637</v>
       </c>
       <c r="B81" s="1">
-        <v>0.76</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="82" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1088,7 +4062,7 @@
         <v>455.00000000000637</v>
       </c>
       <c r="B82" s="1">
-        <v>0.76</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="83" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1096,7 +4070,7 @@
         <v>460.99999999999818</v>
       </c>
       <c r="B83" s="1">
-        <v>0.75</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="84" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1104,7 +4078,7 @@
         <v>466.00000000000273</v>
       </c>
       <c r="B84" s="1">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="85" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1112,7 +4086,7 @@
         <v>472.00000000000273</v>
       </c>
       <c r="B85" s="1">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="86" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1136,7 +4110,7 @@
         <v>488.99999999999909</v>
       </c>
       <c r="B88" s="1">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="89" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1144,7 +4118,7 @@
         <v>495</v>
       </c>
       <c r="B89" s="1">
-        <v>0.68</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="90" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1152,7 +4126,7 @@
         <v>501.00000000000182</v>
       </c>
       <c r="B90" s="1">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="91" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1160,7 +4134,7 @@
         <v>506.00000000000546</v>
       </c>
       <c r="B91" s="1">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="92" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1168,7 +4142,7 @@
         <v>512.00000000000546</v>
       </c>
       <c r="B92" s="1">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="93" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1176,7 +4150,7 @@
         <v>517.99999999999818</v>
       </c>
       <c r="B93" s="1">
-        <v>0.63</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="94" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1184,7 +4158,7 @@
         <v>523.00000000000182</v>
       </c>
       <c r="B94" s="1">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="95" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1192,7 +4166,7 @@
         <v>529.00000000000273</v>
       </c>
       <c r="B95" s="1">
-        <v>0.65</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="96" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1200,7 +4174,7 @@
         <v>535.00000000000273</v>
       </c>
       <c r="B96" s="1">
-        <v>0.64</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="97" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1208,7 +4182,7 @@
         <v>539.99999999999727</v>
       </c>
       <c r="B97" s="1">
-        <v>0.63</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="98" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1216,7 +4190,7 @@
         <v>545.99999999999909</v>
       </c>
       <c r="B98" s="1">
-        <v>0.62</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="99" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1224,7 +4198,7 @@
         <v>551.99999999999909</v>
       </c>
       <c r="B99" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="100" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1232,7 +4206,7 @@
         <v>558.00000000000091</v>
       </c>
       <c r="B100" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="101" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1240,7 +4214,7 @@
         <v>563.00000000000455</v>
       </c>
       <c r="B101" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="102" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1248,7 +4222,7 @@
         <v>569.00000000000546</v>
       </c>
       <c r="B102" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="103" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1256,7 +4230,7 @@
         <v>575.00000000000637</v>
       </c>
       <c r="B103" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="104" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1264,7 +4238,7 @@
         <v>580.00000000000091</v>
       </c>
       <c r="B104" s="1">
-        <v>0.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="105" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1272,7 +4246,7 @@
         <v>586.00000000000182</v>
       </c>
       <c r="B105" s="1">
-        <v>0.51</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="106" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1280,7 +4254,7 @@
         <v>592.00000000000182</v>
       </c>
       <c r="B106" s="1">
-        <v>0.47</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="107" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1288,7 +4262,7 @@
         <v>598.00000000000364</v>
       </c>
       <c r="B107" s="1">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="108" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1296,7 +4270,7 @@
         <v>602.99999999999818</v>
       </c>
       <c r="B108" s="1">
-        <v>0.48</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="109" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1304,7 +4278,7 @@
         <v>608.99999999999818</v>
       </c>
       <c r="B109" s="1">
-        <v>0.46</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="110" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1312,7 +4286,7 @@
         <v>615</v>
       </c>
       <c r="B110" s="1">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="111" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1320,7 +4294,7 @@
         <v>620.00000000000364</v>
       </c>
       <c r="B111" s="1">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="112" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1344,7 +4318,7 @@
         <v>637</v>
       </c>
       <c r="B114" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1352,7 +4326,7 @@
         <v>643.00000000000091</v>
       </c>
       <c r="B115" s="1">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="116" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1360,7 +4334,7 @@
         <v>649.00000000000182</v>
       </c>
       <c r="B116" s="1">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="117" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1368,7 +4342,7 @@
         <v>654.00000000000546</v>
       </c>
       <c r="B117" s="1">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="118" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1376,7 +4350,7 @@
         <v>660.00000000000728</v>
       </c>
       <c r="B118" s="1">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="119" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1384,7 +4358,7 @@
         <v>665.99999999999818</v>
       </c>
       <c r="B119" s="1">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="120" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1392,7 +4366,7 @@
         <v>671.99999999999909</v>
       </c>
       <c r="B120" s="1">
-        <v>0.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="121" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1400,7 +4374,7 @@
         <v>677.00000000000364</v>
       </c>
       <c r="B121" s="1">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="122" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1408,7 +4382,7 @@
         <v>683.00000000000364</v>
       </c>
       <c r="B122" s="1">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="123" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1424,7 +4398,7 @@
         <v>694</v>
       </c>
       <c r="B124" s="1">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="125" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1432,7 +4406,7 @@
         <v>700</v>
       </c>
       <c r="B125" s="1">
-        <v>0.36</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="126" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1440,7 +4414,7 @@
         <v>706.00000000000091</v>
       </c>
       <c r="B126" s="1">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="127" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1448,7 +4422,7 @@
         <v>711.00000000000455</v>
       </c>
       <c r="B127" s="1">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="128" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1456,7 +4430,7 @@
         <v>717.00000000000637</v>
       </c>
       <c r="B128" s="1">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="129" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1464,7 +4438,7 @@
         <v>722.99999999999727</v>
       </c>
       <c r="B129" s="1">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="130" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1472,7 +4446,7 @@
         <v>728.00000000000091</v>
       </c>
       <c r="B130" s="1">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="131" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1480,7 +4454,7 @@
         <v>734.00000000000273</v>
       </c>
       <c r="B131" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="132" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1488,7 +4462,7 @@
         <v>740.00000000000273</v>
       </c>
       <c r="B132" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="133" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1496,7 +4470,7 @@
         <v>746.00000000000455</v>
       </c>
       <c r="B133" s="1">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="134" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1504,7 +4478,7 @@
         <v>750.99999999999909</v>
       </c>
       <c r="B134" s="1">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="135" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1528,7 +4502,7 @@
         <v>768.00000000000364</v>
       </c>
       <c r="B137" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="138" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1536,7 +4510,7 @@
         <v>774.00000000000546</v>
       </c>
       <c r="B138" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="139" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1544,7 +4518,7 @@
         <v>780.00000000000728</v>
       </c>
       <c r="B139" s="1">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="140" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1552,7 +4526,7 @@
         <v>785.00000000000091</v>
       </c>
       <c r="B140" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="141" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1560,7 +4534,7 @@
         <v>791.00000000000182</v>
       </c>
       <c r="B141" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="142" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1568,7 +4542,7 @@
         <v>797.00000000000273</v>
       </c>
       <c r="B142" s="1">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="143" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1576,7 +4550,7 @@
         <v>803.00000000000364</v>
       </c>
       <c r="B143" s="1">
-        <v>0.27</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="144" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1592,7 +4566,7 @@
         <v>813.99999999999909</v>
       </c>
       <c r="B145" s="1">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="146" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1600,7 +4574,7 @@
         <v>819.99999999999909</v>
       </c>
       <c r="B146" s="1">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="147" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1608,7 +4582,7 @@
         <v>825.00000000000364</v>
       </c>
       <c r="B147" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="148" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1616,7 +4590,7 @@
         <v>831.00000000000455</v>
       </c>
       <c r="B148" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="149" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1632,7 +4606,7 @@
         <v>842</v>
       </c>
       <c r="B150" s="1">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="151" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1640,7 +4614,7 @@
         <v>848.00000000000091</v>
       </c>
       <c r="B151" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="152" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1648,7 +4622,7 @@
         <v>854.00000000000182</v>
       </c>
       <c r="B152" s="1">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="153" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1656,7 +4630,7 @@
         <v>860.00000000000273</v>
       </c>
       <c r="B153" s="1">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="154" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1664,7 +4638,7 @@
         <v>864.99999999999818</v>
       </c>
       <c r="B154" s="1">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="155" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1712,7 +4686,7 @@
         <v>898.99999999999909</v>
       </c>
       <c r="B160" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="161" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1720,7 +4694,7 @@
         <v>905.00000000000091</v>
       </c>
       <c r="B161" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="162" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1728,7 +4702,7 @@
         <v>911.00000000000091</v>
       </c>
       <c r="B162" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="163" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1736,7 +4710,7 @@
         <v>917.00000000000273</v>
       </c>
       <c r="B163" s="1">
-        <v>0.19</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="164" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1744,7 +4718,7 @@
         <v>922.00000000000637</v>
       </c>
       <c r="B164" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="165" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1752,7 +4726,7 @@
         <v>927.99999999999727</v>
       </c>
       <c r="B165" s="1">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="166" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1760,7 +4734,7 @@
         <v>933.99999999999818</v>
       </c>
       <c r="B166" s="1">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="167" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1768,7 +4742,7 @@
         <v>939.00000000000182</v>
       </c>
       <c r="B167" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="168" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1808,7 +4782,7 @@
         <v>968</v>
       </c>
       <c r="B172" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="173" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1816,7 +4790,7 @@
         <v>973.00000000000455</v>
       </c>
       <c r="B173" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="174" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1824,7 +4798,7 @@
         <v>979.00000000000546</v>
       </c>
       <c r="B174" s="1">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="175" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1832,7 +4806,7 @@
         <v>985.00000000000637</v>
       </c>
       <c r="B175" s="1">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="176" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1840,7 +4814,7 @@
         <v>990.00000000000091</v>
       </c>
       <c r="B176" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1848,7 +4822,7 @@
         <v>996.00000000000182</v>
       </c>
       <c r="B177" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1856,7 +4830,7 @@
         <v>1002.0000000000027</v>
       </c>
       <c r="B178" s="1">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -1864,7 +4838,7 @@
         <v>1008.0000000000036</v>
       </c>
       <c r="B179" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +4846,7 @@
         <v>1012.9999999999982</v>
       </c>
       <c r="B180" s="1">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -1880,7 +4854,7 @@
         <v>1018.9999999999991</v>
       </c>
       <c r="B181" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -1888,7 +4862,7 @@
         <v>1025</v>
       </c>
       <c r="B182" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +4870,7 @@
         <v>1030.0000000000045</v>
       </c>
       <c r="B183" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,7 +4894,7 @@
         <v>1046.9999999999991</v>
       </c>
       <c r="B186" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -1928,7 +4902,7 @@
         <v>1053.0000000000009</v>
       </c>
       <c r="B187" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -1936,7 +4910,7 @@
         <v>1059.0000000000018</v>
       </c>
       <c r="B188" s="1">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -1952,7 +4926,7 @@
         <v>1069.9999999999973</v>
       </c>
       <c r="B190" s="1">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -1960,7 +4934,7 @@
         <v>1075.9999999999982</v>
       </c>
       <c r="B191" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -1968,7 +4942,7 @@
         <v>1082</v>
       </c>
       <c r="B192" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -1984,7 +4958,7 @@
         <v>1093.0000000000036</v>
       </c>
       <c r="B194" s="1">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="195" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1992,7 +4966,7 @@
         <v>1099.0000000000045</v>
       </c>
       <c r="B195" s="1">
-        <v>0.12</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="196" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2016,7 +4990,7 @@
         <v>1116.0000000000018</v>
       </c>
       <c r="B198" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="199" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2032,7 +5006,7 @@
         <v>1127.0000000000064</v>
       </c>
       <c r="B200" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="201" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2040,7 +5014,7 @@
         <v>1132.9999999999982</v>
       </c>
       <c r="B201" s="1">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="202" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2048,7 +5022,7 @@
         <v>1138.0000000000018</v>
       </c>
       <c r="B202" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="203" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2056,7 +5030,7 @@
         <v>1144.0000000000036</v>
       </c>
       <c r="B203" s="1">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="204" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2064,7 +5038,7 @@
         <v>1150.0000000000027</v>
       </c>
       <c r="B204" s="1">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="205" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2088,7 +5062,7 @@
         <v>1166.9999999999991</v>
       </c>
       <c r="B207" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="208" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2104,7 +5078,7 @@
         <v>1178.0000000000045</v>
       </c>
       <c r="B209" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="210" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2120,7 +5094,7 @@
         <v>1190.0000000000055</v>
       </c>
       <c r="B211" s="1">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="212" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2136,7 +5110,7 @@
         <v>1201.0000000000027</v>
       </c>
       <c r="B213" s="1">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2160,7 +5134,7 @@
         <v>1217.9999999999973</v>
       </c>
       <c r="B216" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2168,7 +5142,7 @@
         <v>1223.9999999999982</v>
       </c>
       <c r="B217" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2184,7 +5158,7 @@
         <v>1235.0000000000036</v>
       </c>
       <c r="B219" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="220" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2192,7 +5166,7 @@
         <v>1241.0000000000055</v>
       </c>
       <c r="B220" s="1">
-        <v>0.09</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2224,7 +5198,7 @@
         <v>1264.0000000000018</v>
       </c>
       <c r="B224" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="225" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2248,7 +5222,7 @@
         <v>1280.9999999999982</v>
       </c>
       <c r="B227" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="228" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2256,7 +5230,7 @@
         <v>1286.0000000000018</v>
       </c>
       <c r="B228" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2272,7 +5246,7 @@
         <v>1298.0000000000045</v>
       </c>
       <c r="B230" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="231" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2280,7 +5254,7 @@
         <v>1302.9999999999982</v>
       </c>
       <c r="B231" s="1">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2288,7 +5262,7 @@
         <v>1309</v>
       </c>
       <c r="B232" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="233" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2296,7 +5270,7 @@
         <v>1315.0000000000009</v>
       </c>
       <c r="B233" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2312,7 +5286,7 @@
         <v>1326.0000000000045</v>
       </c>
       <c r="B235" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="236" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2320,7 +5294,7 @@
         <v>1332.0000000000064</v>
       </c>
       <c r="B236" s="1">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="237" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2336,7 +5310,7 @@
         <v>1343.0000000000009</v>
       </c>
       <c r="B238" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="239" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2344,7 +5318,7 @@
         <v>1349.0000000000027</v>
       </c>
       <c r="B239" s="1">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="240" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2352,7 +5326,7 @@
         <v>1355.0000000000036</v>
       </c>
       <c r="B240" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="241" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2368,7 +5342,7 @@
         <v>1365.9999999999991</v>
       </c>
       <c r="B242" s="1">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="243" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2376,7 +5350,7 @@
         <v>1372</v>
       </c>
       <c r="B243" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="244" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2392,7 +5366,7 @@
         <v>1383.0000000000036</v>
       </c>
       <c r="B245" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="246" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2400,7 +5374,7 @@
         <v>1389.0000000000055</v>
       </c>
       <c r="B246" s="1">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="247" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2408,7 +5382,7 @@
         <v>1395.0000000000073</v>
       </c>
       <c r="B247" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="248" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2424,7 +5398,7 @@
         <v>1406.0000000000018</v>
       </c>
       <c r="B249" s="1">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2440,7 +5414,7 @@
         <v>1417.0000000000073</v>
       </c>
       <c r="B251" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="252" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2448,7 +5422,7 @@
         <v>1422.9999999999982</v>
       </c>
       <c r="B252" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="253" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2456,7 +5430,7 @@
         <v>1429</v>
       </c>
       <c r="B253" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="254" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2464,7 +5438,7 @@
         <v>1434.9999999999991</v>
       </c>
       <c r="B254" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="255" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2472,7 +5446,7 @@
         <v>1440.0000000000036</v>
       </c>
       <c r="B255" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="256" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2504,7 +5478,7 @@
         <v>1463.0000000000009</v>
       </c>
       <c r="B259" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="260" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2528,7 +5502,7 @@
         <v>1479.9999999999982</v>
       </c>
       <c r="B262" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="263" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2536,7 +5510,7 @@
         <v>1485.9999999999991</v>
       </c>
       <c r="B263" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="264" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2552,7 +5526,7 @@
         <v>1497.0000000000027</v>
       </c>
       <c r="B265" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="266" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2560,7 +5534,7 @@
         <v>1503.0000000000036</v>
       </c>
       <c r="B266" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="267" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2608,7 +5582,7 @@
         <v>1537.0000000000073</v>
       </c>
       <c r="B272" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2632,7 +5606,7 @@
         <v>1554.0000000000018</v>
       </c>
       <c r="B275" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2640,7 +5614,7 @@
         <v>1560.0000000000036</v>
       </c>
       <c r="B276" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2656,7 +5630,7 @@
         <v>1570.9999999999982</v>
       </c>
       <c r="B278" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2664,7 +5638,7 @@
         <v>1577</v>
       </c>
       <c r="B279" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2672,7 +5646,7 @@
         <v>1583.0000000000018</v>
       </c>
       <c r="B280" s="1">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="281" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2712,7 +5686,7 @@
         <v>1611.0000000000018</v>
       </c>
       <c r="B285" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3148,62 +6122,107 @@
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="1">
+        <f>A339+6</f>
+        <v>1925.0000000000055</v>
+      </c>
       <c r="B340" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="1">
+        <f t="shared" ref="A341:A350" si="0">A340+6</f>
+        <v>1931.0000000000055</v>
+      </c>
       <c r="B341" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="1">
+        <f t="shared" si="0"/>
+        <v>1937.0000000000055</v>
+      </c>
       <c r="B342" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="1">
+        <f t="shared" si="0"/>
+        <v>1943.0000000000055</v>
+      </c>
       <c r="B343" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="1">
+        <f t="shared" si="0"/>
+        <v>1949.0000000000055</v>
+      </c>
       <c r="B344" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="1">
+        <f t="shared" si="0"/>
+        <v>1955.0000000000055</v>
+      </c>
       <c r="B345" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="1">
+        <f t="shared" si="0"/>
+        <v>1961.0000000000055</v>
+      </c>
       <c r="B346" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="1">
+        <f t="shared" si="0"/>
+        <v>1967.0000000000055</v>
+      </c>
       <c r="B347" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="1">
+        <f t="shared" si="0"/>
+        <v>1973.0000000000055</v>
+      </c>
       <c r="B348" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="1">
+        <f t="shared" si="0"/>
+        <v>1979.0000000000055</v>
+      </c>
       <c r="B349" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="1">
+        <f t="shared" si="0"/>
+        <v>1985.0000000000055</v>
+      </c>
       <c r="B350" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
